--- a/Data_file/import_PO_04.xlsx
+++ b/Data_file/import_PO_04.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4235" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="1018">
   <si>
     <t>name</t>
   </si>
@@ -4629,10 +4629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4693,436 +4693,470 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>776</v>
+        <v>987</v>
       </c>
       <c r="B2" s="6">
-        <v>45757</v>
+        <v>45776</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>599</v>
+        <v>952</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>600</v>
+        <v>953</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="5" t="s">
-        <v>771</v>
+        <v>831</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>777</v>
+        <v>954</v>
       </c>
       <c r="H2" s="18">
-        <v>650</v>
+        <v>225</v>
       </c>
       <c r="I2" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J2" s="9"/>
-      <c r="K2" s="15"/>
+      <c r="K2" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="L2" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M2" s="16"/>
+      <c r="M2" s="14" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>776</v>
+        <v>987</v>
       </c>
       <c r="B3" s="6">
-        <v>45757</v>
+        <v>45776</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>599</v>
+        <v>952</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>600</v>
+        <v>953</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="5" t="s">
-        <v>771</v>
+        <v>831</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>778</v>
+        <v>955</v>
       </c>
       <c r="H3" s="18">
-        <v>650</v>
+        <v>270</v>
       </c>
       <c r="I3" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" s="9"/>
-      <c r="K3" s="15"/>
+      <c r="K3" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="L3" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M3" s="16"/>
+      <c r="M3" s="14" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>776</v>
+        <v>987</v>
       </c>
       <c r="B4" s="6">
-        <v>45757</v>
+        <v>45776</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>599</v>
+        <v>952</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>600</v>
+        <v>953</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="5" t="s">
-        <v>771</v>
+        <v>831</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>779</v>
+        <v>988</v>
       </c>
       <c r="H4" s="18">
-        <v>650</v>
+        <v>252</v>
       </c>
       <c r="I4" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="15"/>
+      <c r="K4" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="L4" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M4" s="16"/>
+      <c r="M4" s="14" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>780</v>
+        <v>987</v>
       </c>
       <c r="B5" s="6">
-        <v>45757</v>
+        <v>45776</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>599</v>
+        <v>952</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>600</v>
+        <v>953</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="5" t="s">
-        <v>771</v>
+        <v>831</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>781</v>
+        <v>989</v>
       </c>
       <c r="H5" s="18">
-        <v>2000</v>
+        <v>130.5</v>
       </c>
       <c r="I5" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J5" s="9"/>
-      <c r="K5" s="15"/>
+      <c r="K5" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="L5" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M5" s="16"/>
+      <c r="M5" s="14" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>780</v>
+        <v>987</v>
       </c>
       <c r="B6" s="6">
-        <v>45757</v>
+        <v>45776</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>599</v>
+        <v>952</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>600</v>
+        <v>953</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="5" t="s">
-        <v>771</v>
+        <v>831</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>782</v>
+        <v>989</v>
       </c>
       <c r="H6" s="18">
-        <v>3000</v>
+        <v>85.5</v>
       </c>
       <c r="I6" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="15"/>
+      <c r="K6" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="L6" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M6" s="16"/>
+      <c r="M6" s="14" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>824</v>
+        <v>985</v>
       </c>
       <c r="B7" s="6">
-        <v>45769</v>
+        <v>45776</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>825</v>
+        <v>975</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>826</v>
+        <v>976</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="5" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>828</v>
+        <v>986</v>
       </c>
       <c r="H7" s="18">
-        <v>11000</v>
+        <v>825.89</v>
       </c>
       <c r="I7" s="8">
         <v>1</v>
       </c>
       <c r="J7" s="9"/>
-      <c r="K7" s="15"/>
+      <c r="K7" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="L7" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>829</v>
+        <v>978</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>858</v>
+        <v>984</v>
       </c>
       <c r="B8" s="6">
-        <v>45771</v>
+        <v>45776</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>726</v>
+        <v>948</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>727</v>
+        <v>949</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="5" t="s">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>860</v>
+        <v>950</v>
       </c>
       <c r="H8" s="18">
-        <v>120</v>
+        <v>1250</v>
       </c>
       <c r="I8" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="15"/>
+      <c r="K8" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="L8" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>861</v>
+        <v>978</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>858</v>
+        <v>979</v>
       </c>
       <c r="B9" s="6">
-        <v>45771</v>
+        <v>45776</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>726</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>727</v>
+        <v>44</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="5" t="s">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>862</v>
+        <v>980</v>
       </c>
       <c r="H9" s="18">
-        <v>192</v>
+        <v>365</v>
       </c>
       <c r="I9" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="15"/>
+      <c r="K9" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L9" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>861</v>
+        <v>978</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>858</v>
+        <v>979</v>
       </c>
       <c r="B10" s="6">
-        <v>45771</v>
+        <v>45776</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>726</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>727</v>
+        <v>44</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="5" t="s">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>863</v>
+        <v>981</v>
       </c>
       <c r="H10" s="18">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="I10" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="15"/>
+      <c r="K10" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L10" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>861</v>
+        <v>978</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>858</v>
+        <v>979</v>
       </c>
       <c r="B11" s="6">
-        <v>45771</v>
+        <v>45776</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>726</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>727</v>
+        <v>44</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="5" t="s">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>864</v>
+        <v>982</v>
       </c>
       <c r="H11" s="18">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="I11" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J11" s="9"/>
-      <c r="K11" s="15"/>
+      <c r="K11" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L11" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>861</v>
+        <v>978</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>858</v>
+        <v>979</v>
       </c>
       <c r="B12" s="6">
-        <v>45771</v>
+        <v>45776</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>726</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>727</v>
+        <v>44</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="5" t="s">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>865</v>
+        <v>983</v>
       </c>
       <c r="H12" s="18">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="I12" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J12" s="9"/>
-      <c r="K12" s="15"/>
+      <c r="K12" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L12" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>861</v>
+        <v>978</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>866</v>
+        <v>974</v>
       </c>
       <c r="B13" s="6">
-        <v>45771</v>
+        <v>45776</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>867</v>
+        <v>975</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>868</v>
+        <v>976</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="5" t="s">
-        <v>707</v>
+        <v>831</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>869</v>
+        <v>977</v>
       </c>
       <c r="H13" s="18">
-        <v>16500</v>
+        <v>186.916</v>
       </c>
       <c r="I13" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J13" s="9"/>
-      <c r="K13" s="15"/>
+      <c r="K13" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L13" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>870</v>
+        <v>978</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>866</v>
+        <v>968</v>
       </c>
       <c r="B14" s="6">
-        <v>45771</v>
+        <v>45776</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>867</v>
+        <v>969</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>868</v>
+        <v>970</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="5" t="s">
-        <v>707</v>
+        <v>877</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>871</v>
+        <v>971</v>
       </c>
       <c r="H14" s="18">
-        <v>16500</v>
+        <v>45000</v>
       </c>
       <c r="I14" s="8">
         <v>1</v>
@@ -5133,31 +5167,31 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>870</v>
+        <v>972</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>872</v>
+        <v>968</v>
       </c>
       <c r="B15" s="6">
-        <v>45771</v>
+        <v>45776</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>835</v>
+        <v>969</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>836</v>
+        <v>970</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="5" t="s">
-        <v>837</v>
+        <v>877</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>873</v>
+        <v>973</v>
       </c>
       <c r="H15" s="18">
-        <v>851.37</v>
+        <v>7011.14</v>
       </c>
       <c r="I15" s="8">
         <v>1</v>
@@ -5168,31 +5202,31 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>829</v>
+        <v>972</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>917</v>
+        <v>960</v>
       </c>
       <c r="B16" s="6">
         <v>45775</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>918</v>
+        <v>961</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>919</v>
+        <v>962</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="5" t="s">
-        <v>859</v>
+        <v>963</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>920</v>
+        <v>964</v>
       </c>
       <c r="H16" s="18">
-        <v>16000</v>
+        <v>43440</v>
       </c>
       <c r="I16" s="8">
         <v>1</v>
@@ -5202,30 +5236,32 @@
       <c r="L16" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M16" s="16"/>
+      <c r="M16" s="14" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>991</v>
+        <v>960</v>
       </c>
       <c r="B17" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>992</v>
+        <v>961</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>993</v>
+        <v>962</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="5" t="s">
-        <v>619</v>
+        <v>963</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>994</v>
+        <v>966</v>
       </c>
       <c r="H17" s="18">
-        <v>2000</v>
+        <v>11960</v>
       </c>
       <c r="I17" s="8">
         <v>1</v>
@@ -5236,31 +5272,31 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>995</v>
+        <v>965</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>996</v>
+        <v>960</v>
       </c>
       <c r="B18" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>623</v>
+        <v>961</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>624</v>
+        <v>962</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="5" t="s">
-        <v>633</v>
+        <v>963</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>997</v>
+        <v>967</v>
       </c>
       <c r="H18" s="18">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="I18" s="8">
         <v>1</v>
@@ -5271,209 +5307,219 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>998</v>
+        <v>965</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>996</v>
+        <v>956</v>
       </c>
       <c r="B19" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>623</v>
+        <v>957</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>624</v>
+        <v>958</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="5" t="s">
-        <v>625</v>
+        <v>831</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>999</v>
+        <v>959</v>
       </c>
       <c r="H19" s="18">
-        <v>2500</v>
+        <v>53.28</v>
       </c>
       <c r="I19" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="15"/>
+      <c r="K19" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="L19" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>998</v>
+        <v>946</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>996</v>
+        <v>951</v>
       </c>
       <c r="B20" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>623</v>
+        <v>952</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>624</v>
+        <v>953</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="5" t="s">
-        <v>628</v>
+        <v>831</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1000</v>
+        <v>954</v>
       </c>
       <c r="H20" s="18">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="I20" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J20" s="9"/>
-      <c r="K20" s="15"/>
+      <c r="K20" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="L20" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>998</v>
+        <v>946</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>996</v>
+        <v>951</v>
       </c>
       <c r="B21" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>623</v>
+        <v>952</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>624</v>
+        <v>953</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="5" t="s">
-        <v>633</v>
+        <v>831</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1001</v>
+        <v>955</v>
       </c>
       <c r="H21" s="18">
-        <v>1500</v>
+        <v>270</v>
       </c>
       <c r="I21" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J21" s="9"/>
-      <c r="K21" s="15"/>
+      <c r="K21" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="L21" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>998</v>
+        <v>946</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>996</v>
+        <v>947</v>
       </c>
       <c r="B22" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>623</v>
+        <v>948</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>624</v>
+        <v>949</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="5" t="s">
-        <v>625</v>
+        <v>831</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1002</v>
+        <v>950</v>
       </c>
       <c r="H22" s="18">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="I22" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="9"/>
-      <c r="K22" s="15"/>
+      <c r="K22" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="L22" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>998</v>
+        <v>946</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>996</v>
+        <v>944</v>
       </c>
       <c r="B23" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>623</v>
+        <v>43</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>624</v>
+        <v>44</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="5" t="s">
-        <v>628</v>
+        <v>831</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1003</v>
+        <v>945</v>
       </c>
       <c r="H23" s="18">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="I23" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J23" s="9"/>
-      <c r="K23" s="15"/>
+      <c r="K23" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L23" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>998</v>
+        <v>946</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>1004</v>
+        <v>921</v>
       </c>
       <c r="B24" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>617</v>
+        <v>842</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>618</v>
+        <v>843</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="5" t="s">
-        <v>633</v>
+        <v>844</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1005</v>
+        <v>922</v>
       </c>
       <c r="H24" s="18">
-        <v>2200</v>
+        <v>650</v>
       </c>
       <c r="I24" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="15"/>
@@ -5481,34 +5527,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>1006</v>
+        <v>923</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>1004</v>
+        <v>921</v>
       </c>
       <c r="B25" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>617</v>
+        <v>842</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>618</v>
+        <v>843</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="5" t="s">
-        <v>625</v>
+        <v>844</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1007</v>
+        <v>924</v>
       </c>
       <c r="H25" s="18">
-        <v>1750</v>
+        <v>650</v>
       </c>
       <c r="I25" s="8">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="15"/>
@@ -5516,34 +5562,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>1006</v>
+        <v>923</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>1004</v>
+        <v>921</v>
       </c>
       <c r="B26" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>617</v>
+        <v>842</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>618</v>
+        <v>843</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="5" t="s">
-        <v>628</v>
+        <v>844</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1008</v>
+        <v>925</v>
       </c>
       <c r="H26" s="18">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="I26" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="15"/>
@@ -5551,34 +5597,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>1006</v>
+        <v>923</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>1004</v>
+        <v>921</v>
       </c>
       <c r="B27" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>617</v>
+        <v>842</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>618</v>
+        <v>843</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="5" t="s">
-        <v>633</v>
+        <v>844</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1009</v>
+        <v>926</v>
       </c>
       <c r="H27" s="18">
-        <v>2200</v>
+        <v>650</v>
       </c>
       <c r="I27" s="8">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="15"/>
@@ -5586,34 +5632,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>1006</v>
+        <v>923</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>1004</v>
+        <v>921</v>
       </c>
       <c r="B28" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>617</v>
+        <v>842</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>618</v>
+        <v>843</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="5" t="s">
-        <v>625</v>
+        <v>844</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1010</v>
+        <v>927</v>
       </c>
       <c r="H28" s="18">
-        <v>1750</v>
+        <v>650</v>
       </c>
       <c r="I28" s="8">
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="15"/>
@@ -5621,31 +5667,31 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>1006</v>
+        <v>923</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>1004</v>
+        <v>921</v>
       </c>
       <c r="B29" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>617</v>
+        <v>842</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>618</v>
+        <v>843</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="5" t="s">
-        <v>628</v>
+        <v>844</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1011</v>
+        <v>928</v>
       </c>
       <c r="H29" s="18">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="I29" s="8">
         <v>1</v>
@@ -5656,34 +5702,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>1006</v>
+        <v>923</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>1004</v>
+        <v>921</v>
       </c>
       <c r="B30" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>617</v>
+        <v>842</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>618</v>
+        <v>843</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="5" t="s">
-        <v>633</v>
+        <v>844</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>1012</v>
+        <v>929</v>
       </c>
       <c r="H30" s="18">
-        <v>2200</v>
+        <v>650</v>
       </c>
       <c r="I30" s="8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="15"/>
@@ -5691,34 +5737,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>1006</v>
+        <v>923</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>1004</v>
+        <v>921</v>
       </c>
       <c r="B31" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>617</v>
+        <v>842</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>618</v>
+        <v>843</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="5" t="s">
-        <v>625</v>
+        <v>844</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1013</v>
+        <v>930</v>
       </c>
       <c r="H31" s="18">
-        <v>1750</v>
+        <v>650</v>
       </c>
       <c r="I31" s="8">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="15"/>
@@ -5726,34 +5772,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>1006</v>
+        <v>923</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>1004</v>
+        <v>921</v>
       </c>
       <c r="B32" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>617</v>
+        <v>842</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>618</v>
+        <v>843</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="5" t="s">
-        <v>628</v>
+        <v>844</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>1014</v>
+        <v>931</v>
       </c>
       <c r="H32" s="18">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="I32" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="15"/>
@@ -5761,34 +5807,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>1006</v>
+        <v>923</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>1004</v>
+        <v>921</v>
       </c>
       <c r="B33" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>617</v>
+        <v>842</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>618</v>
+        <v>843</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="5" t="s">
-        <v>633</v>
+        <v>844</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>1015</v>
+        <v>932</v>
       </c>
       <c r="H33" s="18">
-        <v>2200</v>
+        <v>246</v>
       </c>
       <c r="I33" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="15"/>
@@ -5796,34 +5842,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>1006</v>
+        <v>923</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>1004</v>
+        <v>921</v>
       </c>
       <c r="B34" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>617</v>
+        <v>842</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>618</v>
+        <v>843</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="5" t="s">
-        <v>625</v>
+        <v>844</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>1016</v>
+        <v>933</v>
       </c>
       <c r="H34" s="18">
-        <v>1750</v>
+        <v>465</v>
       </c>
       <c r="I34" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="15"/>
@@ -5831,34 +5877,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>1006</v>
+        <v>923</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>1004</v>
+        <v>921</v>
       </c>
       <c r="B35" s="6">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>617</v>
+        <v>842</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>618</v>
+        <v>843</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="5" t="s">
-        <v>628</v>
+        <v>844</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>1017</v>
+        <v>934</v>
       </c>
       <c r="H35" s="18">
-        <v>500</v>
+        <v>815</v>
       </c>
       <c r="I35" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="15"/>
@@ -5866,34 +5912,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>1006</v>
+        <v>923</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>715</v>
+        <v>921</v>
       </c>
       <c r="B36" s="6">
-        <v>45755</v>
+        <v>45775</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>362</v>
+        <v>842</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>363</v>
+        <v>843</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="5" t="s">
-        <v>716</v>
+        <v>844</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>717</v>
+        <v>935</v>
       </c>
       <c r="H36" s="18">
-        <v>416.66699999999997</v>
+        <v>264</v>
       </c>
       <c r="I36" s="8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="15"/>
@@ -5901,31 +5947,31 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>718</v>
+        <v>923</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>719</v>
+        <v>921</v>
       </c>
       <c r="B37" s="6">
-        <v>45755</v>
+        <v>45775</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>720</v>
+        <v>842</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>721</v>
+        <v>843</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="5" t="s">
-        <v>722</v>
+        <v>844</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>723</v>
+        <v>936</v>
       </c>
       <c r="H37" s="18">
-        <v>1145.33</v>
+        <v>164</v>
       </c>
       <c r="I37" s="8">
         <v>2</v>
@@ -5936,327 +5982,311 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>724</v>
+        <v>923</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>732</v>
+        <v>921</v>
       </c>
       <c r="B38" s="6">
-        <v>45756</v>
+        <v>45775</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>720</v>
+        <v>842</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>721</v>
+        <v>843</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="5" t="s">
-        <v>733</v>
+        <v>844</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>734</v>
+        <v>937</v>
       </c>
       <c r="H38" s="18">
-        <v>271.02999999999997</v>
+        <v>186</v>
       </c>
       <c r="I38" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J38" s="9"/>
-      <c r="K38" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="K38" s="15"/>
       <c r="L38" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>736</v>
+        <v>923</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>798</v>
+        <v>921</v>
       </c>
       <c r="B39" s="6">
-        <v>45757</v>
+        <v>45775</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>799</v>
+        <v>842</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>800</v>
+        <v>843</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="5" t="s">
-        <v>801</v>
+        <v>844</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>802</v>
+        <v>938</v>
       </c>
       <c r="H39" s="18">
-        <v>82</v>
+        <v>899</v>
       </c>
       <c r="I39" s="8">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J39" s="9"/>
-      <c r="K39" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="K39" s="15"/>
       <c r="L39" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>803</v>
+        <v>923</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>798</v>
+        <v>921</v>
       </c>
       <c r="B40" s="6">
-        <v>45757</v>
+        <v>45775</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>799</v>
+        <v>842</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>800</v>
+        <v>843</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="5" t="s">
-        <v>801</v>
+        <v>844</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>804</v>
+        <v>939</v>
       </c>
       <c r="H40" s="18">
-        <v>0.68</v>
+        <v>608</v>
       </c>
       <c r="I40" s="8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J40" s="9"/>
-      <c r="K40" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="K40" s="15"/>
       <c r="L40" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>803</v>
+        <v>923</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>798</v>
+        <v>921</v>
       </c>
       <c r="B41" s="6">
-        <v>45757</v>
+        <v>45775</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>799</v>
+        <v>842</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>800</v>
+        <v>843</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="5" t="s">
-        <v>801</v>
+        <v>844</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>805</v>
+        <v>940</v>
       </c>
       <c r="H41" s="18">
-        <v>6.75</v>
+        <v>544</v>
       </c>
       <c r="I41" s="8">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J41" s="9"/>
-      <c r="K41" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="K41" s="15"/>
       <c r="L41" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>803</v>
+        <v>923</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>798</v>
+        <v>921</v>
       </c>
       <c r="B42" s="6">
-        <v>45757</v>
+        <v>45775</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>799</v>
+        <v>842</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>800</v>
+        <v>843</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="5" t="s">
-        <v>801</v>
+        <v>844</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>806</v>
+        <v>941</v>
       </c>
       <c r="H42" s="18">
-        <v>23</v>
+        <v>800</v>
       </c>
       <c r="I42" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J42" s="9"/>
-      <c r="K42" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="K42" s="15"/>
       <c r="L42" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>803</v>
+        <v>923</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>798</v>
+        <v>921</v>
       </c>
       <c r="B43" s="6">
-        <v>45757</v>
+        <v>45775</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>799</v>
+        <v>842</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>800</v>
+        <v>843</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="5" t="s">
-        <v>801</v>
+        <v>844</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>807</v>
+        <v>942</v>
       </c>
       <c r="H43" s="18">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="I43" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J43" s="9"/>
-      <c r="K43" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="K43" s="15"/>
       <c r="L43" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>803</v>
+        <v>923</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>798</v>
+        <v>921</v>
       </c>
       <c r="B44" s="6">
-        <v>45757</v>
+        <v>45775</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>799</v>
+        <v>842</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>800</v>
+        <v>843</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="5" t="s">
-        <v>801</v>
+        <v>844</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>808</v>
+        <v>943</v>
       </c>
       <c r="H44" s="18">
-        <v>2.9</v>
+        <v>80</v>
       </c>
       <c r="I44" s="8">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J44" s="9"/>
-      <c r="K44" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="K44" s="15"/>
       <c r="L44" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>803</v>
+        <v>923</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>798</v>
+        <v>913</v>
       </c>
       <c r="B45" s="6">
-        <v>45757</v>
+        <v>45772</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>799</v>
+        <v>711</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>800</v>
+        <v>712</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="5" t="s">
-        <v>801</v>
+        <v>713</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>809</v>
+        <v>914</v>
       </c>
       <c r="H45" s="18">
-        <v>160</v>
+        <v>1050</v>
       </c>
       <c r="I45" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="9"/>
-      <c r="K45" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="K45" s="15"/>
       <c r="L45" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>803</v>
+        <v>915</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>866</v>
+        <v>913</v>
       </c>
       <c r="B46" s="6">
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>867</v>
+        <v>711</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>868</v>
+        <v>712</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="5" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>869</v>
+        <v>916</v>
       </c>
       <c r="H46" s="18">
-        <v>16500</v>
+        <v>800</v>
       </c>
       <c r="I46" s="8">
         <v>1</v>
@@ -6267,104 +6297,108 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>870</v>
+        <v>915</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>866</v>
+        <v>905</v>
       </c>
       <c r="B47" s="6">
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>867</v>
+        <v>906</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>868</v>
+        <v>907</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="5" t="s">
-        <v>707</v>
+        <v>801</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>871</v>
+        <v>908</v>
       </c>
       <c r="H47" s="18">
-        <v>16500</v>
+        <v>300</v>
       </c>
       <c r="I47" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J47" s="9"/>
-      <c r="K47" s="15"/>
+      <c r="K47" s="5" t="s">
+        <v>735</v>
+      </c>
       <c r="L47" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>870</v>
+        <v>909</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>872</v>
+        <v>905</v>
       </c>
       <c r="B48" s="6">
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>835</v>
+        <v>906</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>836</v>
+        <v>907</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="5" t="s">
-        <v>837</v>
+        <v>801</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>873</v>
+        <v>910</v>
       </c>
       <c r="H48" s="18">
-        <v>851.37</v>
+        <v>1600</v>
       </c>
       <c r="I48" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" s="9"/>
-      <c r="K48" s="15"/>
+      <c r="K48" s="5" t="s">
+        <v>735</v>
+      </c>
       <c r="L48" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>829</v>
+        <v>909</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>874</v>
+        <v>905</v>
       </c>
       <c r="B49" s="6">
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>875</v>
+        <v>906</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>876</v>
+        <v>907</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="5" t="s">
-        <v>877</v>
+        <v>801</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>878</v>
+        <v>911</v>
       </c>
       <c r="H49" s="18">
-        <v>83</v>
+        <v>1200</v>
       </c>
       <c r="I49" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="5" t="s">
@@ -6374,34 +6408,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>879</v>
+        <v>909</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>874</v>
+        <v>905</v>
       </c>
       <c r="B50" s="6">
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>875</v>
+        <v>906</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>876</v>
+        <v>907</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="5" t="s">
-        <v>877</v>
+        <v>801</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>880</v>
+        <v>912</v>
       </c>
       <c r="H50" s="18">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="I50" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="5" t="s">
@@ -6411,34 +6445,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>879</v>
+        <v>909</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="B51" s="6">
         <v>45771</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>875</v>
+        <v>180</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>876</v>
+        <v>181</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="5" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="H51" s="18">
-        <v>36</v>
+        <v>60.75</v>
       </c>
       <c r="I51" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="5" t="s">
@@ -6448,31 +6482,31 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="B52" s="6">
         <v>45771</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>875</v>
+        <v>180</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>876</v>
+        <v>181</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="5" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="H52" s="18">
-        <v>37</v>
+        <v>32.71</v>
       </c>
       <c r="I52" s="8">
         <v>2</v>
@@ -6485,144 +6519,148 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="B53" s="6">
         <v>45771</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>884</v>
+        <v>180</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>885</v>
+        <v>181</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="5" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="H53" s="18">
-        <v>11500</v>
+        <v>28.036999999999999</v>
       </c>
       <c r="I53" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53" s="9"/>
-      <c r="K53" s="15"/>
+      <c r="K53" s="5" t="s">
+        <v>735</v>
+      </c>
       <c r="L53" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="B54" s="6">
         <v>45771</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>461</v>
+        <v>181</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="5" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="H54" s="18">
-        <v>35000</v>
+        <v>14.018000000000001</v>
       </c>
       <c r="I54" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" s="9"/>
-      <c r="K54" s="15"/>
+      <c r="K54" s="5" t="s">
+        <v>735</v>
+      </c>
       <c r="L54" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>323</v>
+        <v>896</v>
       </c>
     </row>
     <row r="55" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="B55" s="6">
         <v>45771</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>461</v>
+        <v>181</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="5" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="H55" s="18">
-        <v>15000</v>
+        <v>42.055999999999997</v>
       </c>
       <c r="I55" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" s="9"/>
-      <c r="K55" s="15"/>
+      <c r="K55" s="5" t="s">
+        <v>735</v>
+      </c>
       <c r="L55" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>323</v>
+        <v>896</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="B56" s="6">
         <v>45771</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>180</v>
+        <v>902</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>181</v>
+        <v>903</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="5" t="s">
-        <v>894</v>
+        <v>837</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="H56" s="18">
-        <v>60.75</v>
+        <v>0.26</v>
       </c>
       <c r="I56" s="8">
-        <v>2</v>
+        <v>2466</v>
       </c>
       <c r="J56" s="9"/>
-      <c r="K56" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="K56" s="15"/>
       <c r="L56" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -6632,29 +6670,29 @@
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="B57" s="6">
         <v>45771</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>180</v>
+        <v>875</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>181</v>
+        <v>876</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="5" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="H57" s="18">
-        <v>32.71</v>
+        <v>83</v>
       </c>
       <c r="I57" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="5" t="s">
@@ -6664,31 +6702,31 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="B58" s="6">
         <v>45771</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>180</v>
+        <v>875</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>181</v>
+        <v>876</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="5" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>898</v>
+        <v>880</v>
       </c>
       <c r="H58" s="18">
-        <v>28.036999999999999</v>
+        <v>84</v>
       </c>
       <c r="I58" s="8">
         <v>2</v>
@@ -6701,34 +6739,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="B59" s="6">
         <v>45771</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>180</v>
+        <v>875</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>181</v>
+        <v>876</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="5" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>899</v>
+        <v>881</v>
       </c>
       <c r="H59" s="18">
-        <v>14.018000000000001</v>
+        <v>36</v>
       </c>
       <c r="I59" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="5" t="s">
@@ -6738,31 +6776,31 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="B60" s="6">
         <v>45771</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>180</v>
+        <v>875</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>181</v>
+        <v>876</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="5" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="H60" s="18">
-        <v>42.055999999999997</v>
+        <v>37</v>
       </c>
       <c r="I60" s="8">
         <v>2</v>
@@ -6775,34 +6813,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>901</v>
+        <v>883</v>
       </c>
       <c r="B61" s="6">
         <v>45771</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>902</v>
+        <v>884</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>903</v>
+        <v>885</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="5" t="s">
-        <v>837</v>
+        <v>886</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
       <c r="H61" s="18">
-        <v>0.26</v>
+        <v>11500</v>
       </c>
       <c r="I61" s="8">
-        <v>2466</v>
+        <v>3</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="15"/>
@@ -6810,105 +6848,101 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="B62" s="6">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>906</v>
+        <v>460</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>907</v>
+        <v>461</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="5" t="s">
-        <v>801</v>
+        <v>890</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>908</v>
+        <v>891</v>
       </c>
       <c r="H62" s="18">
-        <v>300</v>
+        <v>35000</v>
       </c>
       <c r="I62" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J62" s="9"/>
-      <c r="K62" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="K62" s="15"/>
       <c r="L62" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>909</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="B63" s="6">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>906</v>
+        <v>460</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>907</v>
+        <v>461</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="5" t="s">
-        <v>801</v>
+        <v>890</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="H63" s="18">
-        <v>1600</v>
+        <v>15000</v>
       </c>
       <c r="I63" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" s="9"/>
-      <c r="K63" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="K63" s="15"/>
       <c r="L63" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>909</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="B64" s="6">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>906</v>
+        <v>180</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>907</v>
+        <v>181</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="5" t="s">
-        <v>801</v>
+        <v>894</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
       <c r="H64" s="18">
-        <v>1200</v>
+        <v>60.75</v>
       </c>
       <c r="I64" s="8">
         <v>2</v>
@@ -6921,34 +6955,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="B65" s="6">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>906</v>
+        <v>180</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>907</v>
+        <v>181</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="5" t="s">
-        <v>801</v>
+        <v>894</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="H65" s="18">
-        <v>250</v>
+        <v>32.71</v>
       </c>
       <c r="I65" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="5" t="s">
@@ -6958,34 +6992,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>913</v>
+        <v>841</v>
       </c>
       <c r="B66" s="6">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>711</v>
+        <v>842</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>712</v>
+        <v>843</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="5" t="s">
-        <v>713</v>
+        <v>844</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>914</v>
+        <v>845</v>
       </c>
       <c r="H66" s="18">
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="I66" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="15"/>
@@ -6993,34 +7027,34 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>915</v>
+        <v>846</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>913</v>
+        <v>841</v>
       </c>
       <c r="B67" s="6">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>711</v>
+        <v>842</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>712</v>
+        <v>843</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="5" t="s">
-        <v>713</v>
+        <v>844</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>916</v>
+        <v>847</v>
       </c>
       <c r="H67" s="18">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="I67" s="8">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="15"/>
@@ -7028,48 +7062,50 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>915</v>
+        <v>846</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>917</v>
+        <v>841</v>
       </c>
       <c r="B68" s="6">
-        <v>45775</v>
+        <v>45770</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>918</v>
+        <v>842</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>919</v>
+        <v>843</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="5" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>920</v>
+        <v>848</v>
       </c>
       <c r="H68" s="18">
-        <v>16000</v>
+        <v>650</v>
       </c>
       <c r="I68" s="8">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="15"/>
       <c r="L68" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M68" s="16"/>
+      <c r="M68" s="14" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="69" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A69" s="5" t="s">
-        <v>921</v>
+        <v>841</v>
       </c>
       <c r="B69" s="6">
-        <v>45775</v>
+        <v>45770</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>842</v>
@@ -7082,13 +7118,13 @@
         <v>844</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>922</v>
+        <v>849</v>
       </c>
       <c r="H69" s="18">
         <v>650</v>
       </c>
       <c r="I69" s="8">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="15"/>
@@ -7096,15 +7132,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>923</v>
+        <v>846</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A70" s="5" t="s">
-        <v>921</v>
+        <v>841</v>
       </c>
       <c r="B70" s="6">
-        <v>45775</v>
+        <v>45770</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>842</v>
@@ -7117,13 +7153,13 @@
         <v>844</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>924</v>
+        <v>850</v>
       </c>
       <c r="H70" s="18">
         <v>650</v>
       </c>
       <c r="I70" s="8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="15"/>
@@ -7131,15 +7167,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M70" s="14" t="s">
-        <v>923</v>
+        <v>846</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A71" s="5" t="s">
-        <v>921</v>
+        <v>841</v>
       </c>
       <c r="B71" s="6">
-        <v>45775</v>
+        <v>45770</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>842</v>
@@ -7152,13 +7188,13 @@
         <v>844</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>925</v>
+        <v>851</v>
       </c>
       <c r="H71" s="18">
         <v>650</v>
       </c>
       <c r="I71" s="8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="15"/>
@@ -7166,15 +7202,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M71" s="14" t="s">
-        <v>923</v>
+        <v>846</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A72" s="5" t="s">
-        <v>921</v>
+        <v>841</v>
       </c>
       <c r="B72" s="6">
-        <v>45775</v>
+        <v>45770</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>842</v>
@@ -7187,13 +7223,13 @@
         <v>844</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>926</v>
+        <v>852</v>
       </c>
       <c r="H72" s="18">
-        <v>650</v>
+        <v>920</v>
       </c>
       <c r="I72" s="8">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="15"/>
@@ -7201,15 +7237,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>923</v>
+        <v>846</v>
       </c>
     </row>
     <row r="73" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>921</v>
+        <v>841</v>
       </c>
       <c r="B73" s="6">
-        <v>45775</v>
+        <v>45770</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>842</v>
@@ -7222,13 +7258,13 @@
         <v>844</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>927</v>
+        <v>853</v>
       </c>
       <c r="H73" s="18">
-        <v>650</v>
+        <v>215</v>
       </c>
       <c r="I73" s="8">
-        <v>4.5999999999999996</v>
+        <v>1</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="15"/>
@@ -7236,15 +7272,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M73" s="14" t="s">
-        <v>923</v>
+        <v>846</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A74" s="5" t="s">
-        <v>921</v>
+        <v>841</v>
       </c>
       <c r="B74" s="6">
-        <v>45775</v>
+        <v>45770</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>842</v>
@@ -7257,10 +7293,10 @@
         <v>844</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>928</v>
+        <v>854</v>
       </c>
       <c r="H74" s="18">
-        <v>650</v>
+        <v>742</v>
       </c>
       <c r="I74" s="8">
         <v>1</v>
@@ -7271,15 +7307,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>923</v>
+        <v>846</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A75" s="5" t="s">
-        <v>921</v>
+        <v>841</v>
       </c>
       <c r="B75" s="6">
-        <v>45775</v>
+        <v>45770</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>842</v>
@@ -7292,13 +7328,13 @@
         <v>844</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>929</v>
+        <v>855</v>
       </c>
       <c r="H75" s="18">
-        <v>650</v>
+        <v>1410</v>
       </c>
       <c r="I75" s="8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="15"/>
@@ -7306,15 +7342,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>923</v>
+        <v>846</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>921</v>
+        <v>841</v>
       </c>
       <c r="B76" s="6">
-        <v>45775</v>
+        <v>45770</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>842</v>
@@ -7327,13 +7363,13 @@
         <v>844</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>930</v>
+        <v>856</v>
       </c>
       <c r="H76" s="18">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="I76" s="8">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="15"/>
@@ -7341,15 +7377,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>923</v>
+        <v>846</v>
       </c>
     </row>
     <row r="77" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>921</v>
+        <v>841</v>
       </c>
       <c r="B77" s="6">
-        <v>45775</v>
+        <v>45770</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>842</v>
@@ -7362,13 +7398,13 @@
         <v>844</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>931</v>
+        <v>857</v>
       </c>
       <c r="H77" s="18">
-        <v>860</v>
+        <v>419</v>
       </c>
       <c r="I77" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="15"/>
@@ -7376,4561 +7412,1373 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>923</v>
+        <v>846</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A78" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B78" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A78" s="5"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
       <c r="E78" s="20"/>
-      <c r="F78" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>932</v>
-      </c>
-      <c r="H78" s="18">
-        <v>246</v>
-      </c>
-      <c r="I78" s="8">
-        <v>2</v>
-      </c>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="8"/>
       <c r="J78" s="9"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M78" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="K78" s="5"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="14"/>
     </row>
     <row r="79" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A79" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B79" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
       <c r="E79" s="20"/>
-      <c r="F79" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>933</v>
-      </c>
-      <c r="H79" s="18">
-        <v>465</v>
-      </c>
-      <c r="I79" s="8">
-        <v>2</v>
-      </c>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="8"/>
       <c r="J79" s="9"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M79" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="K79" s="5"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="14"/>
     </row>
     <row r="80" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A80" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B80" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A80" s="5"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
       <c r="E80" s="20"/>
-      <c r="F80" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>934</v>
-      </c>
-      <c r="H80" s="18">
-        <v>815</v>
-      </c>
-      <c r="I80" s="8">
-        <v>3</v>
-      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M80" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="K80" s="5"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="14"/>
     </row>
     <row r="81" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A81" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B81" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A81" s="5"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
       <c r="E81" s="20"/>
-      <c r="F81" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="H81" s="18">
-        <v>264</v>
-      </c>
-      <c r="I81" s="8">
-        <v>2</v>
-      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="8"/>
       <c r="J81" s="9"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M81" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="K81" s="5"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="14"/>
     </row>
     <row r="82" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A82" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B82" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A82" s="5"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
       <c r="E82" s="20"/>
-      <c r="F82" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>936</v>
-      </c>
-      <c r="H82" s="18">
-        <v>164</v>
-      </c>
-      <c r="I82" s="8">
-        <v>2</v>
-      </c>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="8"/>
       <c r="J82" s="9"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M82" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="K82" s="5"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="14"/>
     </row>
     <row r="83" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A83" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B83" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A83" s="5"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="20"/>
-      <c r="F83" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>937</v>
-      </c>
-      <c r="H83" s="18">
-        <v>186</v>
-      </c>
-      <c r="I83" s="8">
-        <v>2</v>
-      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="8"/>
       <c r="J83" s="9"/>
       <c r="K83" s="15"/>
-      <c r="L83" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M83" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="L83" s="10"/>
+      <c r="M83" s="14"/>
     </row>
     <row r="84" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A84" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B84" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="20"/>
-      <c r="F84" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="H84" s="18">
-        <v>899</v>
-      </c>
-      <c r="I84" s="8">
-        <v>1</v>
-      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="8"/>
       <c r="J84" s="9"/>
       <c r="K84" s="15"/>
-      <c r="L84" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M84" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="L84" s="10"/>
+      <c r="M84" s="14"/>
     </row>
     <row r="85" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A85" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B85" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A85" s="5"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="20"/>
-      <c r="F85" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>939</v>
-      </c>
-      <c r="H85" s="18">
-        <v>608</v>
-      </c>
-      <c r="I85" s="8">
-        <v>1</v>
-      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="8"/>
       <c r="J85" s="9"/>
       <c r="K85" s="15"/>
-      <c r="L85" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M85" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="L85" s="10"/>
+      <c r="M85" s="14"/>
     </row>
     <row r="86" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A86" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B86" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
       <c r="E86" s="20"/>
-      <c r="F86" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="H86" s="18">
-        <v>544</v>
-      </c>
-      <c r="I86" s="8">
-        <v>1</v>
-      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="8"/>
       <c r="J86" s="9"/>
       <c r="K86" s="15"/>
-      <c r="L86" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M86" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="L86" s="10"/>
+      <c r="M86" s="14"/>
     </row>
     <row r="87" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A87" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B87" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
       <c r="E87" s="20"/>
-      <c r="F87" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="H87" s="18">
-        <v>800</v>
-      </c>
-      <c r="I87" s="8">
-        <v>1</v>
-      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="8"/>
       <c r="J87" s="9"/>
       <c r="K87" s="15"/>
-      <c r="L87" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M87" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="L87" s="10"/>
+      <c r="M87" s="14"/>
     </row>
     <row r="88" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A88" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B88" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A88" s="5"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
       <c r="E88" s="20"/>
-      <c r="F88" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>942</v>
-      </c>
-      <c r="H88" s="18">
-        <v>187</v>
-      </c>
-      <c r="I88" s="8">
-        <v>1</v>
-      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="8"/>
       <c r="J88" s="9"/>
       <c r="K88" s="15"/>
-      <c r="L88" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M88" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="L88" s="10"/>
+      <c r="M88" s="14"/>
     </row>
     <row r="89" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A89" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B89" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
       <c r="E89" s="20"/>
-      <c r="F89" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>943</v>
-      </c>
-      <c r="H89" s="18">
-        <v>80</v>
-      </c>
-      <c r="I89" s="8">
-        <v>5</v>
-      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="8"/>
       <c r="J89" s="9"/>
       <c r="K89" s="15"/>
-      <c r="L89" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M89" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="L89" s="10"/>
+      <c r="M89" s="14"/>
     </row>
     <row r="90" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A90" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="B90" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
       <c r="E90" s="20"/>
-      <c r="F90" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="H90" s="18">
-        <v>340</v>
-      </c>
-      <c r="I90" s="8">
-        <v>5</v>
-      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="8"/>
       <c r="J90" s="9"/>
-      <c r="K90" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L90" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M90" s="14" t="s">
-        <v>946</v>
-      </c>
+      <c r="K90" s="15"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="14"/>
     </row>
     <row r="91" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A91" s="5" t="s">
-        <v>947</v>
-      </c>
-      <c r="B91" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>949</v>
-      </c>
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
       <c r="E91" s="20"/>
-      <c r="F91" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="H91" s="18">
-        <v>1250</v>
-      </c>
-      <c r="I91" s="8">
-        <v>2</v>
-      </c>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="8"/>
       <c r="J91" s="9"/>
-      <c r="K91" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L91" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M91" s="14" t="s">
-        <v>946</v>
-      </c>
+      <c r="K91" s="15"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="14"/>
     </row>
     <row r="92" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A92" s="5" t="s">
-        <v>951</v>
-      </c>
-      <c r="B92" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>953</v>
-      </c>
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
       <c r="E92" s="20"/>
-      <c r="F92" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="H92" s="18">
-        <v>225</v>
-      </c>
-      <c r="I92" s="8">
-        <v>5</v>
-      </c>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="8"/>
       <c r="J92" s="9"/>
-      <c r="K92" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L92" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M92" s="14" t="s">
-        <v>946</v>
-      </c>
+      <c r="K92" s="15"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="14"/>
     </row>
     <row r="93" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A93" s="5" t="s">
-        <v>951</v>
-      </c>
-      <c r="B93" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>953</v>
-      </c>
+      <c r="A93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
       <c r="E93" s="20"/>
-      <c r="F93" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>955</v>
-      </c>
-      <c r="H93" s="18">
-        <v>270</v>
-      </c>
-      <c r="I93" s="8">
-        <v>5</v>
-      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="8"/>
       <c r="J93" s="9"/>
-      <c r="K93" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L93" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M93" s="14" t="s">
-        <v>946</v>
-      </c>
+      <c r="K93" s="15"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="14"/>
     </row>
     <row r="94" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A94" s="5" t="s">
-        <v>956</v>
-      </c>
-      <c r="B94" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>958</v>
-      </c>
+      <c r="A94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
       <c r="E94" s="20"/>
-      <c r="F94" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="H94" s="18">
-        <v>53.28</v>
-      </c>
-      <c r="I94" s="8">
-        <v>30</v>
-      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="8"/>
       <c r="J94" s="9"/>
-      <c r="K94" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L94" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M94" s="14" t="s">
-        <v>946</v>
-      </c>
+      <c r="K94" s="15"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="14"/>
     </row>
     <row r="95" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A95" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="B95" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>962</v>
-      </c>
+      <c r="A95" s="5"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
       <c r="E95" s="20"/>
-      <c r="F95" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>964</v>
-      </c>
-      <c r="H95" s="18">
-        <v>43440</v>
-      </c>
-      <c r="I95" s="8">
-        <v>1</v>
-      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="8"/>
       <c r="J95" s="9"/>
       <c r="K95" s="15"/>
-      <c r="L95" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M95" s="14" t="s">
-        <v>965</v>
-      </c>
+      <c r="L95" s="10"/>
+      <c r="M95" s="14"/>
     </row>
     <row r="96" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A96" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="B96" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>962</v>
-      </c>
+      <c r="A96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
       <c r="E96" s="20"/>
-      <c r="F96" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="H96" s="18">
-        <v>11960</v>
-      </c>
-      <c r="I96" s="8">
-        <v>1</v>
-      </c>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="8"/>
       <c r="J96" s="9"/>
       <c r="K96" s="15"/>
-      <c r="L96" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M96" s="14" t="s">
-        <v>965</v>
-      </c>
+      <c r="L96" s="10"/>
+      <c r="M96" s="14"/>
     </row>
     <row r="97" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A97" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="B97" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>962</v>
-      </c>
+      <c r="A97" s="5"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
       <c r="E97" s="20"/>
-      <c r="F97" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>967</v>
-      </c>
-      <c r="H97" s="18">
-        <v>4500</v>
-      </c>
-      <c r="I97" s="8">
-        <v>1</v>
-      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="8"/>
       <c r="J97" s="9"/>
       <c r="K97" s="15"/>
-      <c r="L97" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M97" s="14" t="s">
-        <v>965</v>
-      </c>
+      <c r="L97" s="10"/>
+      <c r="M97" s="14"/>
     </row>
     <row r="98" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A98" s="5" t="s">
-        <v>968</v>
-      </c>
-      <c r="B98" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>969</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>970</v>
-      </c>
+      <c r="A98" s="5"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
       <c r="E98" s="20"/>
-      <c r="F98" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>971</v>
-      </c>
-      <c r="H98" s="18">
-        <v>45000</v>
-      </c>
-      <c r="I98" s="8">
-        <v>1</v>
-      </c>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="8"/>
       <c r="J98" s="9"/>
       <c r="K98" s="15"/>
-      <c r="L98" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M98" s="14" t="s">
-        <v>972</v>
-      </c>
+      <c r="L98" s="10"/>
+      <c r="M98" s="14"/>
     </row>
     <row r="99" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A99" s="5" t="s">
-        <v>968</v>
-      </c>
-      <c r="B99" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>969</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>970</v>
-      </c>
+      <c r="A99" s="5"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
       <c r="E99" s="20"/>
-      <c r="F99" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>973</v>
-      </c>
-      <c r="H99" s="18">
-        <v>7011.14</v>
-      </c>
-      <c r="I99" s="8">
-        <v>1</v>
-      </c>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="8"/>
       <c r="J99" s="9"/>
       <c r="K99" s="15"/>
-      <c r="L99" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M99" s="14" t="s">
-        <v>972</v>
-      </c>
+      <c r="L99" s="10"/>
+      <c r="M99" s="14"/>
     </row>
     <row r="100" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A100" s="5" t="s">
-        <v>974</v>
-      </c>
-      <c r="B100" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>975</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>976</v>
-      </c>
+      <c r="A100" s="5"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
       <c r="E100" s="20"/>
-      <c r="F100" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="H100" s="18">
-        <v>186.916</v>
-      </c>
-      <c r="I100" s="8">
-        <v>20</v>
-      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="8"/>
       <c r="J100" s="9"/>
-      <c r="K100" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L100" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M100" s="14" t="s">
-        <v>978</v>
-      </c>
+      <c r="K100" s="15"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="14"/>
     </row>
     <row r="101" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A101" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="B101" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A101" s="5"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
       <c r="E101" s="20"/>
-      <c r="F101" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="H101" s="18">
-        <v>365</v>
-      </c>
-      <c r="I101" s="8">
-        <v>6</v>
-      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="8"/>
       <c r="J101" s="9"/>
-      <c r="K101" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L101" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M101" s="14" t="s">
-        <v>978</v>
-      </c>
+      <c r="K101" s="15"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="14"/>
     </row>
     <row r="102" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A102" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="B102" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A102" s="5"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
       <c r="E102" s="20"/>
-      <c r="F102" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="H102" s="18">
-        <v>265</v>
-      </c>
-      <c r="I102" s="8">
-        <v>10</v>
-      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="8"/>
       <c r="J102" s="9"/>
-      <c r="K102" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L102" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M102" s="14" t="s">
-        <v>978</v>
-      </c>
+      <c r="K102" s="15"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="14"/>
     </row>
     <row r="103" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A103" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="B103" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
       <c r="E103" s="20"/>
-      <c r="F103" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="H103" s="18">
-        <v>155</v>
-      </c>
-      <c r="I103" s="8">
-        <v>10</v>
-      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="8"/>
       <c r="J103" s="9"/>
-      <c r="K103" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L103" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M103" s="14" t="s">
-        <v>978</v>
-      </c>
+      <c r="K103" s="15"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="14"/>
     </row>
     <row r="104" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A104" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="B104" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A104" s="5"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
       <c r="E104" s="20"/>
-      <c r="F104" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="H104" s="18">
-        <v>250</v>
-      </c>
-      <c r="I104" s="8">
-        <v>10</v>
-      </c>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="8"/>
       <c r="J104" s="9"/>
-      <c r="K104" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L104" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M104" s="14" t="s">
-        <v>978</v>
-      </c>
+      <c r="K104" s="15"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="14"/>
     </row>
     <row r="105" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A105" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="B105" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>949</v>
-      </c>
+      <c r="A105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
       <c r="E105" s="20"/>
-      <c r="F105" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="H105" s="18">
-        <v>1250</v>
-      </c>
-      <c r="I105" s="8">
-        <v>8</v>
-      </c>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="8"/>
       <c r="J105" s="9"/>
-      <c r="K105" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L105" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M105" s="14" t="s">
-        <v>978</v>
-      </c>
+      <c r="K105" s="5"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="14"/>
     </row>
     <row r="106" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A106" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B106" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>975</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>976</v>
-      </c>
+      <c r="A106" s="5"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
       <c r="E106" s="20"/>
-      <c r="F106" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>986</v>
-      </c>
-      <c r="H106" s="18">
-        <v>825.89</v>
-      </c>
-      <c r="I106" s="8">
-        <v>1</v>
-      </c>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="8"/>
       <c r="J106" s="9"/>
-      <c r="K106" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L106" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M106" s="14" t="s">
-        <v>978</v>
-      </c>
+      <c r="K106" s="5"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="14"/>
     </row>
     <row r="107" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A107" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="B107" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>953</v>
-      </c>
+      <c r="A107" s="5"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
       <c r="E107" s="20"/>
-      <c r="F107" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="H107" s="18">
-        <v>225</v>
-      </c>
-      <c r="I107" s="8">
-        <v>10</v>
-      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="8"/>
       <c r="J107" s="9"/>
-      <c r="K107" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L107" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M107" s="14" t="s">
-        <v>978</v>
-      </c>
+      <c r="K107" s="5"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="14"/>
     </row>
     <row r="108" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A108" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="B108" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>953</v>
-      </c>
+      <c r="A108" s="5"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
       <c r="E108" s="20"/>
-      <c r="F108" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>955</v>
-      </c>
-      <c r="H108" s="18">
-        <v>270</v>
-      </c>
-      <c r="I108" s="8">
-        <v>10</v>
-      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="8"/>
       <c r="J108" s="9"/>
-      <c r="K108" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L108" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M108" s="14" t="s">
-        <v>978</v>
-      </c>
+      <c r="K108" s="5"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="14"/>
     </row>
     <row r="109" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A109" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="B109" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>953</v>
-      </c>
+      <c r="A109" s="5"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
       <c r="E109" s="20"/>
-      <c r="F109" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="H109" s="18">
-        <v>252</v>
-      </c>
-      <c r="I109" s="8">
-        <v>8</v>
-      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="8"/>
       <c r="J109" s="9"/>
-      <c r="K109" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L109" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M109" s="14" t="s">
-        <v>978</v>
-      </c>
+      <c r="K109" s="15"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="14"/>
     </row>
     <row r="110" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A110" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="B110" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>953</v>
-      </c>
+      <c r="A110" s="5"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
       <c r="E110" s="20"/>
-      <c r="F110" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="H110" s="18">
-        <v>130.5</v>
-      </c>
-      <c r="I110" s="8">
-        <v>8</v>
-      </c>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="8"/>
       <c r="J110" s="9"/>
-      <c r="K110" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L110" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M110" s="14" t="s">
-        <v>978</v>
-      </c>
+      <c r="K110" s="15"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="14"/>
     </row>
     <row r="111" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A111" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="B111" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>953</v>
-      </c>
+      <c r="A111" s="5"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
       <c r="E111" s="20"/>
-      <c r="F111" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="H111" s="18">
-        <v>85.5</v>
-      </c>
-      <c r="I111" s="8">
-        <v>8</v>
-      </c>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="8"/>
       <c r="J111" s="9"/>
-      <c r="K111" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L111" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M111" s="14" t="s">
-        <v>978</v>
-      </c>
+      <c r="K111" s="15"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="14"/>
     </row>
     <row r="112" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A112" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="B112" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>958</v>
-      </c>
+      <c r="A112" s="5"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
       <c r="E112" s="20"/>
-      <c r="F112" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="H112" s="18">
-        <v>53.28</v>
-      </c>
-      <c r="I112" s="8">
-        <v>60</v>
-      </c>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="8"/>
       <c r="J112" s="9"/>
-      <c r="K112" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L112" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M112" s="14" t="s">
-        <v>978</v>
-      </c>
+      <c r="K112" s="5"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="14"/>
     </row>
     <row r="113" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A113" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="B113" s="6">
-        <v>45757</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>812</v>
-      </c>
+      <c r="A113" s="5"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
       <c r="E113" s="20"/>
-      <c r="F113" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="H113" s="18">
-        <v>45</v>
-      </c>
-      <c r="I113" s="8">
-        <v>84</v>
-      </c>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="8"/>
       <c r="J113" s="9"/>
-      <c r="K113" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L113" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M113" s="14" t="s">
-        <v>815</v>
-      </c>
+      <c r="K113" s="5"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="14"/>
     </row>
     <row r="114" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A114" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="B114" s="6">
-        <v>45757</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>800</v>
-      </c>
+      <c r="A114" s="5"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
       <c r="E114" s="20"/>
-      <c r="F114" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="H114" s="18">
-        <v>34</v>
-      </c>
-      <c r="I114" s="8">
-        <v>50</v>
-      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="8"/>
       <c r="J114" s="9"/>
-      <c r="K114" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L114" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M114" s="14" t="s">
-        <v>815</v>
-      </c>
+      <c r="K114" s="5"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="14"/>
     </row>
     <row r="115" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A115" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="B115" s="6">
-        <v>45757</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>800</v>
-      </c>
+      <c r="A115" s="5"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
       <c r="E115" s="20"/>
-      <c r="F115" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="H115" s="18">
-        <v>140</v>
-      </c>
-      <c r="I115" s="8">
-        <v>2</v>
-      </c>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="8"/>
       <c r="J115" s="9"/>
-      <c r="K115" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L115" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M115" s="14" t="s">
-        <v>815</v>
-      </c>
+      <c r="K115" s="5"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="14"/>
     </row>
     <row r="116" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A116" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="B116" s="6">
-        <v>45757</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>800</v>
-      </c>
+      <c r="A116" s="5"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
       <c r="E116" s="20"/>
-      <c r="F116" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="H116" s="18">
-        <v>100</v>
-      </c>
-      <c r="I116" s="8">
-        <v>2</v>
-      </c>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="8"/>
       <c r="J116" s="9"/>
-      <c r="K116" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L116" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M116" s="14" t="s">
-        <v>815</v>
-      </c>
+      <c r="K116" s="5"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="14"/>
     </row>
     <row r="117" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A117" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="B117" s="6">
-        <v>45757</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>800</v>
-      </c>
+      <c r="A117" s="5"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
       <c r="E117" s="20"/>
-      <c r="F117" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="H117" s="18">
-        <v>46</v>
-      </c>
-      <c r="I117" s="8">
-        <v>15</v>
-      </c>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="8"/>
       <c r="J117" s="9"/>
-      <c r="K117" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L117" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M117" s="14" t="s">
-        <v>823</v>
-      </c>
+      <c r="K117" s="15"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="14"/>
     </row>
     <row r="118" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A118" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="B118" s="6">
-        <v>45770</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="A118" s="5"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
       <c r="E118" s="20"/>
-      <c r="F118" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="H118" s="18">
-        <v>14.018000000000001</v>
-      </c>
-      <c r="I118" s="8">
-        <v>2</v>
-      </c>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="8"/>
       <c r="J118" s="9"/>
-      <c r="K118" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L118" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M118" s="14" t="s">
-        <v>833</v>
-      </c>
+      <c r="K118" s="5"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="14"/>
     </row>
     <row r="119" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A119" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="B119" s="6">
-        <v>45770</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>836</v>
-      </c>
+      <c r="A119" s="5"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
       <c r="E119" s="20"/>
-      <c r="F119" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="H119" s="18">
-        <v>3132.12</v>
-      </c>
-      <c r="I119" s="8">
-        <v>1</v>
-      </c>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="8"/>
       <c r="J119" s="9"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M119" s="14" t="s">
-        <v>839</v>
-      </c>
+      <c r="K119" s="5"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="14"/>
     </row>
     <row r="120" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A120" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="B120" s="6">
-        <v>45770</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>836</v>
-      </c>
+      <c r="A120" s="5"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
       <c r="E120" s="20"/>
-      <c r="F120" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="H120" s="18">
-        <v>1013.9</v>
-      </c>
-      <c r="I120" s="8">
-        <v>1</v>
-      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="8"/>
       <c r="J120" s="9"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M120" s="14" t="s">
-        <v>839</v>
-      </c>
+      <c r="K120" s="5"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="14"/>
     </row>
     <row r="121" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A121" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="B121" s="6">
-        <v>45770</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A121" s="5"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
       <c r="E121" s="20"/>
-      <c r="F121" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="H121" s="18">
-        <v>650</v>
-      </c>
-      <c r="I121" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="8"/>
       <c r="J121" s="9"/>
-      <c r="K121" s="15"/>
-      <c r="L121" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M121" s="14" t="s">
-        <v>846</v>
-      </c>
+      <c r="K121" s="5"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="14"/>
     </row>
     <row r="122" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A122" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="B122" s="6">
-        <v>45770</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A122" s="5"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
       <c r="E122" s="20"/>
-      <c r="F122" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="H122" s="18">
-        <v>650</v>
-      </c>
-      <c r="I122" s="8">
-        <v>0.4</v>
-      </c>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="8"/>
       <c r="J122" s="9"/>
       <c r="K122" s="15"/>
-      <c r="L122" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M122" s="14" t="s">
-        <v>846</v>
-      </c>
+      <c r="L122" s="10"/>
+      <c r="M122" s="14"/>
     </row>
     <row r="123" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A123" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="B123" s="6">
-        <v>45770</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A123" s="5"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
       <c r="E123" s="20"/>
-      <c r="F123" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="H123" s="18">
-        <v>650</v>
-      </c>
-      <c r="I123" s="8">
-        <v>0.3</v>
-      </c>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="8"/>
       <c r="J123" s="9"/>
       <c r="K123" s="15"/>
-      <c r="L123" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M123" s="14" t="s">
-        <v>846</v>
-      </c>
+      <c r="L123" s="10"/>
+      <c r="M123" s="14"/>
     </row>
     <row r="124" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A124" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="B124" s="6">
-        <v>45770</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A124" s="5"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
       <c r="E124" s="20"/>
-      <c r="F124" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="H124" s="18">
-        <v>650</v>
-      </c>
-      <c r="I124" s="8">
-        <v>2</v>
-      </c>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="8"/>
       <c r="J124" s="9"/>
       <c r="K124" s="15"/>
-      <c r="L124" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M124" s="14" t="s">
-        <v>846</v>
-      </c>
+      <c r="L124" s="10"/>
+      <c r="M124" s="16"/>
     </row>
     <row r="125" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A125" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="B125" s="6">
-        <v>45770</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A125" s="5"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
       <c r="E125" s="20"/>
-      <c r="F125" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H125" s="18">
-        <v>650</v>
-      </c>
-      <c r="I125" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="8"/>
       <c r="J125" s="9"/>
       <c r="K125" s="15"/>
-      <c r="L125" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M125" s="14" t="s">
-        <v>846</v>
-      </c>
+      <c r="L125" s="10"/>
+      <c r="M125" s="14"/>
     </row>
     <row r="126" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A126" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="B126" s="6">
-        <v>45770</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A126" s="5"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
       <c r="E126" s="20"/>
-      <c r="F126" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="H126" s="18">
-        <v>650</v>
-      </c>
-      <c r="I126" s="8">
-        <v>0.6</v>
-      </c>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="8"/>
       <c r="J126" s="9"/>
       <c r="K126" s="15"/>
-      <c r="L126" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M126" s="14" t="s">
-        <v>846</v>
-      </c>
+      <c r="L126" s="10"/>
+      <c r="M126" s="14"/>
     </row>
     <row r="127" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A127" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="B127" s="6">
-        <v>45770</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A127" s="5"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
       <c r="E127" s="20"/>
-      <c r="F127" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="H127" s="18">
-        <v>920</v>
-      </c>
-      <c r="I127" s="8">
-        <v>2</v>
-      </c>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="8"/>
       <c r="J127" s="9"/>
       <c r="K127" s="15"/>
-      <c r="L127" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M127" s="14" t="s">
-        <v>846</v>
-      </c>
+      <c r="L127" s="10"/>
+      <c r="M127" s="14"/>
     </row>
     <row r="128" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A128" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="B128" s="6">
-        <v>45770</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A128" s="5"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
       <c r="E128" s="20"/>
-      <c r="F128" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="H128" s="18">
-        <v>215</v>
-      </c>
-      <c r="I128" s="8">
-        <v>1</v>
-      </c>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="8"/>
       <c r="J128" s="9"/>
       <c r="K128" s="15"/>
-      <c r="L128" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M128" s="14" t="s">
-        <v>846</v>
-      </c>
+      <c r="L128" s="10"/>
+      <c r="M128" s="14"/>
     </row>
     <row r="129" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A129" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="B129" s="6">
-        <v>45770</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A129" s="5"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
       <c r="E129" s="20"/>
-      <c r="F129" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="H129" s="18">
-        <v>742</v>
-      </c>
-      <c r="I129" s="8">
-        <v>1</v>
-      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="8"/>
       <c r="J129" s="9"/>
       <c r="K129" s="15"/>
-      <c r="L129" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M129" s="14" t="s">
-        <v>846</v>
-      </c>
+      <c r="L129" s="10"/>
+      <c r="M129" s="14"/>
     </row>
     <row r="130" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A130" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="B130" s="6">
-        <v>45770</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A130" s="5"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
       <c r="E130" s="20"/>
-      <c r="F130" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="H130" s="18">
-        <v>1410</v>
-      </c>
-      <c r="I130" s="8">
-        <v>1</v>
-      </c>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="8"/>
       <c r="J130" s="9"/>
       <c r="K130" s="15"/>
-      <c r="L130" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M130" s="14" t="s">
-        <v>846</v>
-      </c>
+      <c r="L130" s="10"/>
+      <c r="M130" s="14"/>
     </row>
     <row r="131" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A131" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="B131" s="6">
-        <v>45770</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A131" s="5"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
       <c r="E131" s="20"/>
-      <c r="F131" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="H131" s="18">
-        <v>623</v>
-      </c>
-      <c r="I131" s="8">
-        <v>1</v>
-      </c>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="8"/>
       <c r="J131" s="9"/>
       <c r="K131" s="15"/>
-      <c r="L131" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M131" s="14" t="s">
-        <v>846</v>
-      </c>
+      <c r="L131" s="10"/>
+      <c r="M131" s="14"/>
     </row>
     <row r="132" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A132" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="B132" s="6">
-        <v>45770</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A132" s="5"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
       <c r="E132" s="20"/>
-      <c r="F132" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="H132" s="18">
-        <v>419</v>
-      </c>
-      <c r="I132" s="8">
-        <v>1</v>
-      </c>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="8"/>
       <c r="J132" s="9"/>
       <c r="K132" s="15"/>
-      <c r="L132" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M132" s="14" t="s">
-        <v>846</v>
-      </c>
+      <c r="L132" s="10"/>
+      <c r="M132" s="14"/>
     </row>
     <row r="133" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A133" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="B133" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>727</v>
-      </c>
+      <c r="A133" s="5"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
       <c r="E133" s="20"/>
-      <c r="F133" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="H133" s="18">
-        <v>120</v>
-      </c>
-      <c r="I133" s="8">
-        <v>5</v>
-      </c>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="8"/>
       <c r="J133" s="9"/>
       <c r="K133" s="15"/>
-      <c r="L133" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M133" s="14" t="s">
-        <v>861</v>
-      </c>
+      <c r="L133" s="10"/>
+      <c r="M133" s="14"/>
     </row>
     <row r="134" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A134" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="B134" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>727</v>
-      </c>
+      <c r="A134" s="5"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
       <c r="E134" s="20"/>
-      <c r="F134" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="H134" s="18">
-        <v>192</v>
-      </c>
-      <c r="I134" s="8">
-        <v>4</v>
-      </c>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="8"/>
       <c r="J134" s="9"/>
       <c r="K134" s="15"/>
-      <c r="L134" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M134" s="14" t="s">
-        <v>861</v>
-      </c>
+      <c r="L134" s="10"/>
+      <c r="M134" s="14"/>
     </row>
     <row r="135" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A135" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="B135" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>727</v>
-      </c>
+      <c r="A135" s="5"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
       <c r="E135" s="20"/>
-      <c r="F135" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="H135" s="18">
-        <v>144</v>
-      </c>
-      <c r="I135" s="8">
-        <v>2</v>
-      </c>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="8"/>
       <c r="J135" s="9"/>
       <c r="K135" s="15"/>
-      <c r="L135" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M135" s="14" t="s">
-        <v>861</v>
-      </c>
+      <c r="L135" s="10"/>
+      <c r="M135" s="14"/>
     </row>
     <row r="136" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A136" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="B136" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>727</v>
-      </c>
+      <c r="A136" s="5"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
       <c r="E136" s="20"/>
-      <c r="F136" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="H136" s="18">
-        <v>250</v>
-      </c>
-      <c r="I136" s="8">
-        <v>4</v>
-      </c>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="8"/>
       <c r="J136" s="9"/>
       <c r="K136" s="15"/>
-      <c r="L136" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M136" s="14" t="s">
-        <v>861</v>
-      </c>
+      <c r="L136" s="10"/>
+      <c r="M136" s="14"/>
     </row>
     <row r="137" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A137" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="B137" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>727</v>
-      </c>
+      <c r="A137" s="5"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
       <c r="E137" s="20"/>
-      <c r="F137" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="H137" s="18">
-        <v>160</v>
-      </c>
-      <c r="I137" s="8">
-        <v>4</v>
-      </c>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="8"/>
       <c r="J137" s="9"/>
       <c r="K137" s="15"/>
-      <c r="L137" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M137" s="14" t="s">
-        <v>861</v>
-      </c>
+      <c r="L137" s="10"/>
+      <c r="M137" s="14"/>
     </row>
     <row r="138" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A138" s="5" t="s">
-        <v>866</v>
-      </c>
-      <c r="B138" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>868</v>
-      </c>
+      <c r="A138" s="5"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
       <c r="E138" s="20"/>
-      <c r="F138" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="H138" s="18">
-        <v>16500</v>
-      </c>
-      <c r="I138" s="8">
-        <v>1</v>
-      </c>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="8"/>
       <c r="J138" s="9"/>
       <c r="K138" s="15"/>
-      <c r="L138" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M138" s="14" t="s">
-        <v>870</v>
-      </c>
+      <c r="L138" s="10"/>
+      <c r="M138" s="14"/>
     </row>
     <row r="139" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A139" s="5" t="s">
-        <v>866</v>
-      </c>
-      <c r="B139" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>868</v>
-      </c>
+      <c r="A139" s="5"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
       <c r="E139" s="20"/>
-      <c r="F139" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="H139" s="18">
-        <v>16500</v>
-      </c>
-      <c r="I139" s="8">
-        <v>1</v>
-      </c>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="8"/>
       <c r="J139" s="9"/>
       <c r="K139" s="15"/>
-      <c r="L139" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M139" s="14" t="s">
-        <v>870</v>
-      </c>
+      <c r="L139" s="10"/>
+      <c r="M139" s="14"/>
     </row>
     <row r="140" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A140" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="B140" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>836</v>
-      </c>
+      <c r="A140" s="5"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
       <c r="E140" s="20"/>
-      <c r="F140" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="H140" s="18">
-        <v>851.37</v>
-      </c>
-      <c r="I140" s="8">
-        <v>1</v>
-      </c>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="8"/>
       <c r="J140" s="9"/>
       <c r="K140" s="15"/>
-      <c r="L140" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M140" s="14" t="s">
-        <v>829</v>
-      </c>
+      <c r="L140" s="10"/>
+      <c r="M140" s="14"/>
     </row>
     <row r="141" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A141" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="B141" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>876</v>
-      </c>
+      <c r="A141" s="5"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
       <c r="E141" s="20"/>
-      <c r="F141" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="H141" s="18">
-        <v>83</v>
-      </c>
-      <c r="I141" s="8">
-        <v>3</v>
-      </c>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="8"/>
       <c r="J141" s="9"/>
-      <c r="K141" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L141" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M141" s="14" t="s">
-        <v>879</v>
-      </c>
+      <c r="K141" s="15"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="14"/>
     </row>
     <row r="142" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A142" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="B142" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>876</v>
-      </c>
+      <c r="A142" s="5"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
       <c r="E142" s="20"/>
-      <c r="F142" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="H142" s="18">
-        <v>84</v>
-      </c>
-      <c r="I142" s="8">
-        <v>2</v>
-      </c>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="8"/>
       <c r="J142" s="9"/>
-      <c r="K142" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L142" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M142" s="14" t="s">
-        <v>879</v>
-      </c>
+      <c r="K142" s="15"/>
+      <c r="L142" s="10"/>
+      <c r="M142" s="14"/>
     </row>
     <row r="143" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A143" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="B143" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>876</v>
-      </c>
+      <c r="A143" s="5"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
       <c r="E143" s="20"/>
-      <c r="F143" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="H143" s="18">
-        <v>36</v>
-      </c>
-      <c r="I143" s="8">
-        <v>3</v>
-      </c>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="8"/>
       <c r="J143" s="9"/>
-      <c r="K143" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L143" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M143" s="14" t="s">
-        <v>879</v>
-      </c>
+      <c r="K143" s="15"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="14"/>
     </row>
     <row r="144" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A144" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="B144" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>876</v>
-      </c>
+      <c r="A144" s="5"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
       <c r="E144" s="20"/>
-      <c r="F144" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="H144" s="18">
-        <v>37</v>
-      </c>
-      <c r="I144" s="8">
-        <v>2</v>
-      </c>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="8"/>
       <c r="J144" s="9"/>
-      <c r="K144" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L144" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M144" s="14" t="s">
-        <v>879</v>
-      </c>
+      <c r="K144" s="15"/>
+      <c r="L144" s="10"/>
+      <c r="M144" s="14"/>
     </row>
     <row r="145" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A145" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="B145" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>885</v>
-      </c>
+      <c r="A145" s="5"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
       <c r="E145" s="20"/>
-      <c r="F145" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="H145" s="18">
-        <v>11500</v>
-      </c>
-      <c r="I145" s="8">
-        <v>3</v>
-      </c>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="8"/>
       <c r="J145" s="9"/>
       <c r="K145" s="15"/>
-      <c r="L145" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M145" s="14" t="s">
-        <v>888</v>
-      </c>
+      <c r="L145" s="10"/>
+      <c r="M145" s="14"/>
     </row>
     <row r="146" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A146" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="B146" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>461</v>
-      </c>
+      <c r="A146" s="5"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
       <c r="E146" s="20"/>
-      <c r="F146" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="H146" s="18">
-        <v>35000</v>
-      </c>
-      <c r="I146" s="8">
-        <v>1</v>
-      </c>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="8"/>
       <c r="J146" s="9"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M146" s="14" t="s">
-        <v>323</v>
-      </c>
+      <c r="K146" s="5"/>
+      <c r="L146" s="10"/>
+      <c r="M146" s="14"/>
     </row>
     <row r="147" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A147" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="B147" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>461</v>
-      </c>
+      <c r="A147" s="5"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
       <c r="E147" s="20"/>
-      <c r="F147" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="H147" s="18">
-        <v>15000</v>
-      </c>
-      <c r="I147" s="8">
-        <v>1</v>
-      </c>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="8"/>
       <c r="J147" s="9"/>
-      <c r="K147" s="15"/>
-      <c r="L147" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M147" s="14" t="s">
-        <v>323</v>
-      </c>
+      <c r="K147" s="5"/>
+      <c r="L147" s="10"/>
+      <c r="M147" s="14"/>
     </row>
     <row r="148" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A148" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="B148" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="A148" s="5"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
       <c r="E148" s="20"/>
-      <c r="F148" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="H148" s="18">
-        <v>60.75</v>
-      </c>
-      <c r="I148" s="8">
-        <v>2</v>
-      </c>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="8"/>
       <c r="J148" s="9"/>
-      <c r="K148" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L148" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M148" s="14" t="s">
-        <v>896</v>
-      </c>
+      <c r="K148" s="5"/>
+      <c r="L148" s="10"/>
+      <c r="M148" s="14"/>
     </row>
     <row r="149" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A149" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="B149" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="A149" s="5"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
       <c r="E149" s="20"/>
-      <c r="F149" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="H149" s="18">
-        <v>32.71</v>
-      </c>
-      <c r="I149" s="8">
-        <v>2</v>
-      </c>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="8"/>
       <c r="J149" s="9"/>
-      <c r="K149" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L149" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M149" s="14" t="s">
-        <v>896</v>
-      </c>
+      <c r="K149" s="5"/>
+      <c r="L149" s="10"/>
+      <c r="M149" s="14"/>
     </row>
     <row r="150" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A150" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="B150" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="A150" s="5"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
       <c r="E150" s="20"/>
-      <c r="F150" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="H150" s="18">
-        <v>28.036999999999999</v>
-      </c>
-      <c r="I150" s="8">
-        <v>2</v>
-      </c>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="8"/>
       <c r="J150" s="9"/>
-      <c r="K150" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L150" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M150" s="14" t="s">
-        <v>896</v>
-      </c>
+      <c r="K150" s="5"/>
+      <c r="L150" s="10"/>
+      <c r="M150" s="14"/>
     </row>
     <row r="151" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A151" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="B151" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="A151" s="5"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
       <c r="E151" s="20"/>
-      <c r="F151" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="H151" s="18">
-        <v>14.018000000000001</v>
-      </c>
-      <c r="I151" s="8">
-        <v>2</v>
-      </c>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="8"/>
       <c r="J151" s="9"/>
-      <c r="K151" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L151" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M151" s="14" t="s">
-        <v>896</v>
-      </c>
+      <c r="K151" s="15"/>
+      <c r="L151" s="10"/>
+      <c r="M151" s="14"/>
     </row>
     <row r="152" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A152" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="B152" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="A152" s="5"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
       <c r="E152" s="20"/>
-      <c r="F152" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>900</v>
-      </c>
-      <c r="H152" s="18">
-        <v>42.055999999999997</v>
-      </c>
-      <c r="I152" s="8">
-        <v>2</v>
-      </c>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="8"/>
       <c r="J152" s="9"/>
-      <c r="K152" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L152" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M152" s="14" t="s">
-        <v>896</v>
-      </c>
+      <c r="K152" s="15"/>
+      <c r="L152" s="10"/>
+      <c r="M152" s="14"/>
     </row>
     <row r="153" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A153" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="B153" s="6">
-        <v>45771</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>902</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>903</v>
-      </c>
+      <c r="A153" s="5"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
       <c r="E153" s="20"/>
-      <c r="F153" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="H153" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="I153" s="8">
-        <v>2466</v>
-      </c>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="8"/>
       <c r="J153" s="9"/>
       <c r="K153" s="15"/>
-      <c r="L153" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M153" s="14" t="s">
-        <v>896</v>
-      </c>
+      <c r="L153" s="10"/>
+      <c r="M153" s="14"/>
     </row>
     <row r="154" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A154" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="B154" s="6">
-        <v>45772</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>907</v>
-      </c>
+      <c r="A154" s="5"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
       <c r="E154" s="20"/>
-      <c r="F154" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>908</v>
-      </c>
-      <c r="H154" s="18">
-        <v>300</v>
-      </c>
-      <c r="I154" s="8">
-        <v>10</v>
-      </c>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="8"/>
       <c r="J154" s="9"/>
-      <c r="K154" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L154" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M154" s="14" t="s">
-        <v>909</v>
-      </c>
+      <c r="K154" s="15"/>
+      <c r="L154" s="10"/>
+      <c r="M154" s="14"/>
     </row>
     <row r="155" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A155" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="B155" s="6">
-        <v>45772</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>907</v>
-      </c>
+      <c r="A155" s="5"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
       <c r="E155" s="20"/>
-      <c r="F155" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="H155" s="18">
-        <v>1600</v>
-      </c>
-      <c r="I155" s="8">
-        <v>2</v>
-      </c>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="8"/>
       <c r="J155" s="9"/>
-      <c r="K155" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L155" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M155" s="14" t="s">
-        <v>909</v>
-      </c>
+      <c r="K155" s="15"/>
+      <c r="L155" s="10"/>
+      <c r="M155" s="14"/>
     </row>
     <row r="156" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A156" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="B156" s="6">
-        <v>45772</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>907</v>
-      </c>
+      <c r="A156" s="5"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
       <c r="E156" s="20"/>
-      <c r="F156" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="G156" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="H156" s="18">
-        <v>1200</v>
-      </c>
-      <c r="I156" s="8">
-        <v>2</v>
-      </c>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="8"/>
       <c r="J156" s="9"/>
-      <c r="K156" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L156" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M156" s="14" t="s">
-        <v>909</v>
-      </c>
+      <c r="K156" s="5"/>
+      <c r="L156" s="10"/>
+      <c r="M156" s="14"/>
     </row>
     <row r="157" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A157" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="B157" s="6">
-        <v>45772</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>907</v>
-      </c>
+      <c r="A157" s="5"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
       <c r="E157" s="20"/>
-      <c r="F157" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="G157" s="5" t="s">
-        <v>912</v>
-      </c>
-      <c r="H157" s="18">
-        <v>250</v>
-      </c>
-      <c r="I157" s="8">
-        <v>4</v>
-      </c>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="8"/>
       <c r="J157" s="9"/>
-      <c r="K157" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="L157" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M157" s="14" t="s">
-        <v>909</v>
-      </c>
+      <c r="K157" s="5"/>
+      <c r="L157" s="10"/>
+      <c r="M157" s="14"/>
     </row>
     <row r="158" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A158" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="B158" s="6">
-        <v>45772</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>712</v>
-      </c>
+      <c r="A158" s="5"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
       <c r="E158" s="20"/>
-      <c r="F158" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>914</v>
-      </c>
-      <c r="H158" s="18">
-        <v>1050</v>
-      </c>
-      <c r="I158" s="8">
-        <v>1</v>
-      </c>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="8"/>
       <c r="J158" s="9"/>
-      <c r="K158" s="15"/>
-      <c r="L158" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M158" s="14" t="s">
-        <v>915</v>
-      </c>
+      <c r="K158" s="5"/>
+      <c r="L158" s="10"/>
+      <c r="M158" s="14"/>
     </row>
     <row r="159" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A159" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="B159" s="6">
-        <v>45772</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>712</v>
-      </c>
+      <c r="A159" s="5"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
       <c r="E159" s="20"/>
-      <c r="F159" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="G159" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="H159" s="18">
-        <v>800</v>
-      </c>
-      <c r="I159" s="8">
-        <v>1</v>
-      </c>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="8"/>
       <c r="J159" s="9"/>
-      <c r="K159" s="15"/>
-      <c r="L159" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M159" s="14" t="s">
-        <v>915</v>
-      </c>
+      <c r="K159" s="5"/>
+      <c r="L159" s="10"/>
+      <c r="M159" s="14"/>
     </row>
     <row r="160" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A160" s="5" t="s">
-        <v>917</v>
-      </c>
-      <c r="B160" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>918</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>919</v>
-      </c>
+      <c r="A160" s="5"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
       <c r="E160" s="20"/>
-      <c r="F160" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="G160" s="5" t="s">
-        <v>920</v>
-      </c>
-      <c r="H160" s="18">
-        <v>16000</v>
-      </c>
-      <c r="I160" s="8">
-        <v>1</v>
-      </c>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="18"/>
+      <c r="I160" s="8"/>
       <c r="J160" s="9"/>
-      <c r="K160" s="15"/>
-      <c r="L160" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M160" s="16"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="10"/>
+      <c r="M160" s="14"/>
     </row>
     <row r="161" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A161" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B161" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A161" s="5"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
       <c r="E161" s="20"/>
-      <c r="F161" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G161" s="5" t="s">
-        <v>922</v>
-      </c>
-      <c r="H161" s="18">
-        <v>650</v>
-      </c>
-      <c r="I161" s="8">
-        <v>0.8</v>
-      </c>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="8"/>
       <c r="J161" s="9"/>
-      <c r="K161" s="15"/>
-      <c r="L161" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M161" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="K161" s="5"/>
+      <c r="L161" s="10"/>
+      <c r="M161" s="14"/>
     </row>
     <row r="162" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A162" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B162" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A162" s="5"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
       <c r="E162" s="20"/>
-      <c r="F162" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G162" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="H162" s="18">
-        <v>650</v>
-      </c>
-      <c r="I162" s="8">
-        <v>0.6</v>
-      </c>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="8"/>
       <c r="J162" s="9"/>
-      <c r="K162" s="15"/>
-      <c r="L162" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M162" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="K162" s="5"/>
+      <c r="L162" s="10"/>
+      <c r="M162" s="14"/>
     </row>
     <row r="163" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A163" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B163" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A163" s="5"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
       <c r="E163" s="20"/>
-      <c r="F163" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G163" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="H163" s="18">
-        <v>650</v>
-      </c>
-      <c r="I163" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="8"/>
       <c r="J163" s="9"/>
-      <c r="K163" s="15"/>
-      <c r="L163" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M163" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="K163" s="5"/>
+      <c r="L163" s="10"/>
+      <c r="M163" s="14"/>
     </row>
     <row r="164" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A164" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B164" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A164" s="5"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
       <c r="E164" s="20"/>
-      <c r="F164" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G164" s="5" t="s">
-        <v>926</v>
-      </c>
-      <c r="H164" s="18">
-        <v>650</v>
-      </c>
-      <c r="I164" s="8">
-        <v>3.6</v>
-      </c>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="18"/>
+      <c r="I164" s="8"/>
       <c r="J164" s="9"/>
-      <c r="K164" s="15"/>
-      <c r="L164" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M164" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="K164" s="5"/>
+      <c r="L164" s="10"/>
+      <c r="M164" s="14"/>
     </row>
     <row r="165" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A165" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B165" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A165" s="5"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
       <c r="E165" s="20"/>
-      <c r="F165" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>927</v>
-      </c>
-      <c r="H165" s="18">
-        <v>650</v>
-      </c>
-      <c r="I165" s="8">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="8"/>
       <c r="J165" s="9"/>
-      <c r="K165" s="15"/>
-      <c r="L165" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M165" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="K165" s="5"/>
+      <c r="L165" s="10"/>
+      <c r="M165" s="14"/>
     </row>
     <row r="166" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A166" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B166" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A166" s="5"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
       <c r="E166" s="20"/>
-      <c r="F166" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G166" s="5" t="s">
-        <v>928</v>
-      </c>
-      <c r="H166" s="18">
-        <v>650</v>
-      </c>
-      <c r="I166" s="8">
-        <v>1</v>
-      </c>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="18"/>
+      <c r="I166" s="8"/>
       <c r="J166" s="9"/>
-      <c r="K166" s="15"/>
-      <c r="L166" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M166" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="K166" s="5"/>
+      <c r="L166" s="10"/>
+      <c r="M166" s="14"/>
     </row>
     <row r="167" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A167" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B167" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A167" s="5"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
       <c r="E167" s="20"/>
-      <c r="F167" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="H167" s="18">
-        <v>650</v>
-      </c>
-      <c r="I167" s="8">
-        <v>0.7</v>
-      </c>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="8"/>
       <c r="J167" s="9"/>
-      <c r="K167" s="15"/>
-      <c r="L167" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M167" s="14" t="s">
-        <v>923</v>
-      </c>
+      <c r="K167" s="5"/>
+      <c r="L167" s="10"/>
+      <c r="M167" s="14"/>
     </row>
     <row r="168" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A168" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B168" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>843</v>
-      </c>
+      <c r="A168" s="5"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
       <c r="E168" s="20"/>
-      <c r="F168" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G168" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="H168" s="18">
-        <v>650</v>
-      </c>
-      <c r="I168" s="8">
-        <v>0.3</v>
-      </c>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="18"/>
+      <c r="I168" s="8"/>
       <c r="J168" s="9"/>
-      <c r="K168" s="15"/>
-      <c r="L168" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M168" s="14" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A169" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B169" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="E169" s="20"/>
-      <c r="F169" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G169" s="5" t="s">
-        <v>931</v>
-      </c>
-      <c r="H169" s="18">
-        <v>860</v>
-      </c>
-      <c r="I169" s="8">
-        <v>2</v>
-      </c>
-      <c r="J169" s="9"/>
-      <c r="K169" s="15"/>
-      <c r="L169" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M169" s="14" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A170" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B170" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="E170" s="20"/>
-      <c r="F170" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G170" s="5" t="s">
-        <v>932</v>
-      </c>
-      <c r="H170" s="18">
-        <v>246</v>
-      </c>
-      <c r="I170" s="8">
-        <v>2</v>
-      </c>
-      <c r="J170" s="9"/>
-      <c r="K170" s="15"/>
-      <c r="L170" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M170" s="14" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A171" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B171" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="E171" s="20"/>
-      <c r="F171" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>933</v>
-      </c>
-      <c r="H171" s="18">
-        <v>465</v>
-      </c>
-      <c r="I171" s="8">
-        <v>2</v>
-      </c>
-      <c r="J171" s="9"/>
-      <c r="K171" s="15"/>
-      <c r="L171" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M171" s="14" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A172" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B172" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="E172" s="20"/>
-      <c r="F172" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G172" s="5" t="s">
-        <v>934</v>
-      </c>
-      <c r="H172" s="18">
-        <v>815</v>
-      </c>
-      <c r="I172" s="8">
-        <v>3</v>
-      </c>
-      <c r="J172" s="9"/>
-      <c r="K172" s="15"/>
-      <c r="L172" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M172" s="14" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A173" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B173" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="E173" s="20"/>
-      <c r="F173" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G173" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="H173" s="18">
-        <v>264</v>
-      </c>
-      <c r="I173" s="8">
-        <v>2</v>
-      </c>
-      <c r="J173" s="9"/>
-      <c r="K173" s="15"/>
-      <c r="L173" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M173" s="14" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A174" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B174" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="E174" s="20"/>
-      <c r="F174" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>936</v>
-      </c>
-      <c r="H174" s="18">
-        <v>164</v>
-      </c>
-      <c r="I174" s="8">
-        <v>2</v>
-      </c>
-      <c r="J174" s="9"/>
-      <c r="K174" s="15"/>
-      <c r="L174" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M174" s="14" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A175" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B175" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="E175" s="20"/>
-      <c r="F175" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G175" s="5" t="s">
-        <v>937</v>
-      </c>
-      <c r="H175" s="18">
-        <v>186</v>
-      </c>
-      <c r="I175" s="8">
-        <v>2</v>
-      </c>
-      <c r="J175" s="9"/>
-      <c r="K175" s="15"/>
-      <c r="L175" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M175" s="14" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A176" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B176" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="E176" s="20"/>
-      <c r="F176" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G176" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="H176" s="18">
-        <v>899</v>
-      </c>
-      <c r="I176" s="8">
-        <v>1</v>
-      </c>
-      <c r="J176" s="9"/>
-      <c r="K176" s="15"/>
-      <c r="L176" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M176" s="14" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A177" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B177" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="E177" s="20"/>
-      <c r="F177" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G177" s="5" t="s">
-        <v>939</v>
-      </c>
-      <c r="H177" s="18">
-        <v>608</v>
-      </c>
-      <c r="I177" s="8">
-        <v>1</v>
-      </c>
-      <c r="J177" s="9"/>
-      <c r="K177" s="15"/>
-      <c r="L177" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M177" s="14" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A178" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B178" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="E178" s="20"/>
-      <c r="F178" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G178" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="H178" s="18">
-        <v>544</v>
-      </c>
-      <c r="I178" s="8">
-        <v>1</v>
-      </c>
-      <c r="J178" s="9"/>
-      <c r="K178" s="15"/>
-      <c r="L178" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M178" s="14" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A179" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B179" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="E179" s="20"/>
-      <c r="F179" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G179" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="H179" s="18">
-        <v>800</v>
-      </c>
-      <c r="I179" s="8">
-        <v>1</v>
-      </c>
-      <c r="J179" s="9"/>
-      <c r="K179" s="15"/>
-      <c r="L179" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M179" s="14" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A180" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B180" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="E180" s="20"/>
-      <c r="F180" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G180" s="5" t="s">
-        <v>942</v>
-      </c>
-      <c r="H180" s="18">
-        <v>187</v>
-      </c>
-      <c r="I180" s="8">
-        <v>1</v>
-      </c>
-      <c r="J180" s="9"/>
-      <c r="K180" s="15"/>
-      <c r="L180" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M180" s="14" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A181" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B181" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="E181" s="20"/>
-      <c r="F181" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="G181" s="5" t="s">
-        <v>943</v>
-      </c>
-      <c r="H181" s="18">
-        <v>80</v>
-      </c>
-      <c r="I181" s="8">
-        <v>5</v>
-      </c>
-      <c r="J181" s="9"/>
-      <c r="K181" s="15"/>
-      <c r="L181" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M181" s="14" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A182" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="B182" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E182" s="20"/>
-      <c r="F182" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G182" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="H182" s="18">
-        <v>340</v>
-      </c>
-      <c r="I182" s="8">
-        <v>5</v>
-      </c>
-      <c r="J182" s="9"/>
-      <c r="K182" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L182" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M182" s="14" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A183" s="5" t="s">
-        <v>947</v>
-      </c>
-      <c r="B183" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="E183" s="20"/>
-      <c r="F183" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G183" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="H183" s="18">
-        <v>1250</v>
-      </c>
-      <c r="I183" s="8">
-        <v>2</v>
-      </c>
-      <c r="J183" s="9"/>
-      <c r="K183" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L183" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M183" s="14" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A184" s="5" t="s">
-        <v>951</v>
-      </c>
-      <c r="B184" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="E184" s="20"/>
-      <c r="F184" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G184" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="H184" s="18">
-        <v>225</v>
-      </c>
-      <c r="I184" s="8">
-        <v>5</v>
-      </c>
-      <c r="J184" s="9"/>
-      <c r="K184" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L184" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M184" s="14" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A185" s="5" t="s">
-        <v>951</v>
-      </c>
-      <c r="B185" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="E185" s="20"/>
-      <c r="F185" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G185" s="5" t="s">
-        <v>955</v>
-      </c>
-      <c r="H185" s="18">
-        <v>270</v>
-      </c>
-      <c r="I185" s="8">
-        <v>5</v>
-      </c>
-      <c r="J185" s="9"/>
-      <c r="K185" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L185" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M185" s="14" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A186" s="5" t="s">
-        <v>956</v>
-      </c>
-      <c r="B186" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="E186" s="20"/>
-      <c r="F186" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G186" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="H186" s="18">
-        <v>53.28</v>
-      </c>
-      <c r="I186" s="8">
-        <v>30</v>
-      </c>
-      <c r="J186" s="9"/>
-      <c r="K186" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L186" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M186" s="14" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A187" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="B187" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>962</v>
-      </c>
-      <c r="E187" s="20"/>
-      <c r="F187" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>964</v>
-      </c>
-      <c r="H187" s="18">
-        <v>43440</v>
-      </c>
-      <c r="I187" s="8">
-        <v>1</v>
-      </c>
-      <c r="J187" s="9"/>
-      <c r="K187" s="15"/>
-      <c r="L187" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M187" s="14" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A188" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="B188" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>962</v>
-      </c>
-      <c r="E188" s="20"/>
-      <c r="F188" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="G188" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="H188" s="18">
-        <v>11960</v>
-      </c>
-      <c r="I188" s="8">
-        <v>1</v>
-      </c>
-      <c r="J188" s="9"/>
-      <c r="K188" s="15"/>
-      <c r="L188" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M188" s="14" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A189" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="B189" s="6">
-        <v>45775</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>962</v>
-      </c>
-      <c r="E189" s="20"/>
-      <c r="F189" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>967</v>
-      </c>
-      <c r="H189" s="18">
-        <v>4500</v>
-      </c>
-      <c r="I189" s="8">
-        <v>1</v>
-      </c>
-      <c r="J189" s="9"/>
-      <c r="K189" s="15"/>
-      <c r="L189" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M189" s="14" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A190" s="5" t="s">
-        <v>968</v>
-      </c>
-      <c r="B190" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>969</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="E190" s="20"/>
-      <c r="F190" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>971</v>
-      </c>
-      <c r="H190" s="18">
-        <v>45000</v>
-      </c>
-      <c r="I190" s="8">
-        <v>1</v>
-      </c>
-      <c r="J190" s="9"/>
-      <c r="K190" s="15"/>
-      <c r="L190" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M190" s="14" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A191" s="5" t="s">
-        <v>968</v>
-      </c>
-      <c r="B191" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>969</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="E191" s="20"/>
-      <c r="F191" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="G191" s="5" t="s">
-        <v>973</v>
-      </c>
-      <c r="H191" s="18">
-        <v>7011.14</v>
-      </c>
-      <c r="I191" s="8">
-        <v>1</v>
-      </c>
-      <c r="J191" s="9"/>
-      <c r="K191" s="15"/>
-      <c r="L191" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M191" s="14" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A192" s="5" t="s">
-        <v>974</v>
-      </c>
-      <c r="B192" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>975</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>976</v>
-      </c>
-      <c r="E192" s="20"/>
-      <c r="F192" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G192" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="H192" s="18">
-        <v>186.916</v>
-      </c>
-      <c r="I192" s="8">
-        <v>20</v>
-      </c>
-      <c r="J192" s="9"/>
-      <c r="K192" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L192" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M192" s="14" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A193" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="B193" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E193" s="20"/>
-      <c r="F193" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G193" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="H193" s="18">
-        <v>365</v>
-      </c>
-      <c r="I193" s="8">
-        <v>6</v>
-      </c>
-      <c r="J193" s="9"/>
-      <c r="K193" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L193" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M193" s="14" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A194" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="B194" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E194" s="20"/>
-      <c r="F194" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G194" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="H194" s="18">
-        <v>265</v>
-      </c>
-      <c r="I194" s="8">
-        <v>10</v>
-      </c>
-      <c r="J194" s="9"/>
-      <c r="K194" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L194" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M194" s="14" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A195" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="B195" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E195" s="20"/>
-      <c r="F195" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G195" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="H195" s="18">
-        <v>155</v>
-      </c>
-      <c r="I195" s="8">
-        <v>10</v>
-      </c>
-      <c r="J195" s="9"/>
-      <c r="K195" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L195" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M195" s="14" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A196" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="B196" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E196" s="20"/>
-      <c r="F196" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="H196" s="18">
-        <v>250</v>
-      </c>
-      <c r="I196" s="8">
-        <v>10</v>
-      </c>
-      <c r="J196" s="9"/>
-      <c r="K196" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L196" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M196" s="14" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A197" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="B197" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="E197" s="20"/>
-      <c r="F197" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="H197" s="18">
-        <v>1250</v>
-      </c>
-      <c r="I197" s="8">
-        <v>8</v>
-      </c>
-      <c r="J197" s="9"/>
-      <c r="K197" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L197" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M197" s="14" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A198" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="B198" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>975</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>976</v>
-      </c>
-      <c r="E198" s="20"/>
-      <c r="F198" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>986</v>
-      </c>
-      <c r="H198" s="18">
-        <v>825.89</v>
-      </c>
-      <c r="I198" s="8">
-        <v>1</v>
-      </c>
-      <c r="J198" s="9"/>
-      <c r="K198" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L198" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M198" s="14" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A199" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="B199" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="E199" s="20"/>
-      <c r="F199" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="H199" s="18">
-        <v>225</v>
-      </c>
-      <c r="I199" s="8">
-        <v>10</v>
-      </c>
-      <c r="J199" s="9"/>
-      <c r="K199" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L199" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M199" s="14" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A200" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="B200" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="E200" s="20"/>
-      <c r="F200" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>955</v>
-      </c>
-      <c r="H200" s="18">
-        <v>270</v>
-      </c>
-      <c r="I200" s="8">
-        <v>10</v>
-      </c>
-      <c r="J200" s="9"/>
-      <c r="K200" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L200" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M200" s="14" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A201" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="B201" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="E201" s="20"/>
-      <c r="F201" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="H201" s="18">
-        <v>252</v>
-      </c>
-      <c r="I201" s="8">
-        <v>8</v>
-      </c>
-      <c r="J201" s="9"/>
-      <c r="K201" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L201" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M201" s="14" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A202" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="B202" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="E202" s="20"/>
-      <c r="F202" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="H202" s="18">
-        <v>130.5</v>
-      </c>
-      <c r="I202" s="8">
-        <v>8</v>
-      </c>
-      <c r="J202" s="9"/>
-      <c r="K202" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L202" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M202" s="14" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A203" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="B203" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="E203" s="20"/>
-      <c r="F203" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G203" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="H203" s="18">
-        <v>85.5</v>
-      </c>
-      <c r="I203" s="8">
-        <v>8</v>
-      </c>
-      <c r="J203" s="9"/>
-      <c r="K203" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L203" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M203" s="14" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" s="1" customFormat="1" ht="49.65" customHeight="1">
-      <c r="A204" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="B204" s="6">
-        <v>45776</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="E204" s="20"/>
-      <c r="F204" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="G204" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="H204" s="18">
-        <v>53.28</v>
-      </c>
-      <c r="I204" s="8">
-        <v>60</v>
-      </c>
-      <c r="J204" s="9"/>
-      <c r="K204" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L204" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M204" s="14" t="s">
-        <v>978</v>
-      </c>
+      <c r="K168" s="5"/>
+      <c r="L168" s="10"/>
+      <c r="M168" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11941,8 +8789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M488"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C435" workbookViewId="0">
-      <selection activeCell="N438" sqref="N438"/>
+    <sheetView showGridLines="0" topLeftCell="A360" workbookViewId="0">
+      <selection activeCell="A357" sqref="A357:XFD368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
